--- a/Printer Scaneer.xlsx
+++ b/Printer Scaneer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\IT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9311C4DB-D4D9-49B5-B58B-197E22B540C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCDFC81-52CE-46CE-9A72-CA84D6D8D135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28B90F4A-044B-48DF-8C27-AD96CECA226D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
   <si>
     <t>GENESIS TECHNOLOGIES LTD</t>
   </si>
@@ -168,18 +168,6 @@
     <t>5️⃣</t>
   </si>
   <si>
-    <t>Canon</t>
-  </si>
-  <si>
-    <t>F166500</t>
-  </si>
-  <si>
-    <t>NCBA185470</t>
-  </si>
-  <si>
-    <t>3rd Floor Accounts Room</t>
-  </si>
-  <si>
     <t>HP Laser 107w</t>
   </si>
   <si>
@@ -195,21 +183,6 @@
     <t>6️⃣</t>
   </si>
   <si>
-    <t>SAMSUNG</t>
-  </si>
-  <si>
-    <t>Xpress M2820ND</t>
-  </si>
-  <si>
-    <t>2D3DB8GJ4B003VR</t>
-  </si>
-  <si>
-    <t>Both Side  Print</t>
-  </si>
-  <si>
-    <t>2nd Floor Commercial  Room</t>
-  </si>
-  <si>
     <t>T3 Project Printer</t>
   </si>
   <si>
@@ -229,15 +202,6 @@
   </si>
   <si>
     <t>Scaneer</t>
-  </si>
-  <si>
-    <t>Canon(Scaneer)</t>
-  </si>
-  <si>
-    <t>Canon EUROPA</t>
-  </si>
-  <si>
-    <t>KJLB51913</t>
   </si>
 </sst>
 </file>
@@ -373,13 +337,7 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -431,6 +389,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -747,39 +711,39 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051F3BA4-C1EC-429F-A133-E070B6B799C9}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="19" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
@@ -787,412 +751,322 @@
       <c r="O1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+    </row>
+    <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10" t="s">
+      <c r="I4" s="7"/>
+      <c r="J4" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10" t="s">
+      <c r="I5" s="7"/>
+      <c r="J5" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10" t="s">
+      <c r="I6" s="7"/>
+      <c r="J6" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="13">
         <v>4</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10" t="s">
+      <c r="I7" s="7"/>
+      <c r="J7" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <v>5</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10" t="s">
+      <c r="I8" s="7"/>
+      <c r="J8" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="15">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10" t="s">
+      <c r="I9" s="7"/>
+      <c r="J9" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="5">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="E10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="F10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10" t="s">
+      <c r="H10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>8</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="17">
+        <v>9</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="7">
-        <v>9</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="D13" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E13" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="F13" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="7">
-        <v>10</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="19">
-        <v>11</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="20" t="s">
+      <c r="G13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="19">
-        <v>12</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10" t="s">
+      <c r="I13" s="7"/>
+      <c r="J13" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1200,7 +1074,7 @@
   <mergeCells count="3">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A12:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
